--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3352.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3352.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.219933736316186</v>
+        <v>2.414553642272949</v>
       </c>
       <c r="B1">
-        <v>2.787528749821372</v>
+        <v>3.511605501174927</v>
       </c>
       <c r="C1">
-        <v>6.695758491110591</v>
+        <v>2.773596525192261</v>
       </c>
       <c r="D1">
-        <v>2.112238408600393</v>
+        <v>2.27135443687439</v>
       </c>
       <c r="E1">
-        <v>1.163946039245908</v>
+        <v>1.541318893432617</v>
       </c>
     </row>
   </sheetData>
